--- a/similar_pwms.xlsx
+++ b/similar_pwms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Similar PWMs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="456">
   <si>
     <t>CCA1_binding_site_motif</t>
   </si>
@@ -962,6 +962,600 @@
   </si>
   <si>
     <t>M0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head </t>
+  </si>
+  <si>
+    <t>BoxII and M00635</t>
+  </si>
+  <si>
+    <t>caGCAACA(G/T)Aaa</t>
+  </si>
+  <si>
+    <t>atCACCTC(A/G)ggc</t>
+  </si>
+  <si>
+    <t>NNgCAACA(G/T)a</t>
+  </si>
+  <si>
+    <t>M0077</t>
+  </si>
+  <si>
+    <t>M00343</t>
+  </si>
+  <si>
+    <t>M0078</t>
+  </si>
+  <si>
+    <t>atCACCTGag(G/A)c</t>
+  </si>
+  <si>
+    <t>New changes based on gene ID</t>
+  </si>
+  <si>
+    <t>M0151_1.02</t>
+  </si>
+  <si>
+    <t>M2353_1.02</t>
+  </si>
+  <si>
+    <t>M2862_1.02</t>
+  </si>
+  <si>
+    <t>M2863_1.02</t>
+  </si>
+  <si>
+    <t>M00435</t>
+  </si>
+  <si>
+    <t>M00434</t>
+  </si>
+  <si>
+    <t>AT1G09530</t>
+  </si>
+  <si>
+    <t>CACGTGg</t>
+  </si>
+  <si>
+    <t>agCCACGTGa</t>
+  </si>
+  <si>
+    <t>Gt(A/G)GG(A/C)CACGTG(A/G)(A/C)gtCt</t>
+  </si>
+  <si>
+    <t>(A/G)c(G/T)(G/T)(C/G)CCACGTCGccct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (ABF1) AT1G49720</t>
+  </si>
+  <si>
+    <t>AT1G13260 (PIF3)</t>
+  </si>
+  <si>
+    <t>M2363_1.02</t>
+  </si>
+  <si>
+    <t>M00399</t>
+  </si>
+  <si>
+    <t>M00400</t>
+  </si>
+  <si>
+    <t>M00401</t>
+  </si>
+  <si>
+    <t>M00442</t>
+  </si>
+  <si>
+    <t>ggACACGTGgN</t>
+  </si>
+  <si>
+    <t>gCCACGTGT</t>
+  </si>
+  <si>
+    <t>GTCGNNGGGACACGTGGCNcgacN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    CGaCACGTGGCaCgacgGg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   NNgCgNtgGCCACGTGGCCNCGACA</t>
+  </si>
+  <si>
+    <t>GTCNNNTTCN</t>
+  </si>
+  <si>
+    <t>AT4G18960 (AG)</t>
+  </si>
+  <si>
+    <t>M2606</t>
+  </si>
+  <si>
+    <t>M00151</t>
+  </si>
+  <si>
+    <t>M00950</t>
+  </si>
+  <si>
+    <t>M01063</t>
+  </si>
+  <si>
+    <t>M01133</t>
+  </si>
+  <si>
+    <t>TT(A/G/T)CC(A/T)(A/T)(A/T)(A/T)(A/T)(A/T)GG(A/C/T)</t>
+  </si>
+  <si>
+    <t>AG BS in SUP</t>
+  </si>
+  <si>
+    <t>NTTaCC(A/T)AATNNGGNAAN</t>
+  </si>
+  <si>
+    <t>TTNCCaaATaaGGNAA</t>
+  </si>
+  <si>
+    <t>aNTTNCCaTTTTNGGNN</t>
+  </si>
+  <si>
+    <t>AT2G03710</t>
+  </si>
+  <si>
+    <t>M00392</t>
+  </si>
+  <si>
+    <t>M00393</t>
+  </si>
+  <si>
+    <t>M01064</t>
+  </si>
+  <si>
+    <t>M1836</t>
+  </si>
+  <si>
+    <t>M2619</t>
+  </si>
+  <si>
+    <t>M2620</t>
+  </si>
+  <si>
+    <t>TT(A/T)C(C/T)A(A/T)(A/T)(A/T)(A/T)T(A/G)G(A/T)AA</t>
+  </si>
+  <si>
+    <t>AGL3 binding site</t>
+  </si>
+  <si>
+    <t>nnnnnCAnnnnnnGnnnn</t>
+  </si>
+  <si>
+    <t>M2372</t>
+  </si>
+  <si>
+    <t>M00361</t>
+  </si>
+  <si>
+    <t>M2699</t>
+  </si>
+  <si>
+    <t>AT1G09770</t>
+  </si>
+  <si>
+    <t>M00635</t>
+  </si>
+  <si>
+    <t>M1276</t>
+  </si>
+  <si>
+    <t>GTNAATA</t>
+  </si>
+  <si>
+    <t>GTTAACCA</t>
+  </si>
+  <si>
+    <t>GT1</t>
+  </si>
+  <si>
+    <t>M2374</t>
+  </si>
+  <si>
+    <t>M0146</t>
+  </si>
+  <si>
+    <t>LEC2</t>
+  </si>
+  <si>
+    <t>ANNTGCATCNNN</t>
+  </si>
+  <si>
+    <t>ATGCATGC</t>
+  </si>
+  <si>
+    <t>ATHB2_binding</t>
+  </si>
+  <si>
+    <t>ATHB6_binding</t>
+  </si>
+  <si>
+    <t>MYC2</t>
+  </si>
+  <si>
+    <t>AtMYC2 BS in RD22</t>
+  </si>
+  <si>
+    <t>M2359</t>
+  </si>
+  <si>
+    <t>NCCACTTCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     CACATG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CCACGTCC</t>
+  </si>
+  <si>
+    <t>M0250</t>
+  </si>
+  <si>
+    <t>M2343_1.02</t>
+  </si>
+  <si>
+    <t>M01156</t>
+  </si>
+  <si>
+    <t>M0156</t>
+  </si>
+  <si>
+    <t>M2345</t>
+  </si>
+  <si>
+    <t>PIL5</t>
+  </si>
+  <si>
+    <t>NNCACGTGNN</t>
+  </si>
+  <si>
+    <t>GCCACGTG</t>
+  </si>
+  <si>
+    <t>M2365</t>
+  </si>
+  <si>
+    <t>M00089</t>
+  </si>
+  <si>
+    <t>M2661</t>
+  </si>
+  <si>
+    <t>M1842</t>
+  </si>
+  <si>
+    <t>HAT5</t>
+  </si>
+  <si>
+    <t>ERF1</t>
+  </si>
+  <si>
+    <t>M0025</t>
+  </si>
+  <si>
+    <t>M2360</t>
+  </si>
+  <si>
+    <t>M2737</t>
+  </si>
+  <si>
+    <t>ERF1 BS in AtCHI-B</t>
+  </si>
+  <si>
+    <t>GCCGCC</t>
+  </si>
+  <si>
+    <t>ERE promoter motif</t>
+  </si>
+  <si>
+    <t>TAAGAGCCGCC</t>
+  </si>
+  <si>
+    <t>GCC-box</t>
+  </si>
+  <si>
+    <t>NcGCCGCCNN</t>
+  </si>
+  <si>
+    <t>ATMYB15</t>
+  </si>
+  <si>
+    <t>M00969</t>
+  </si>
+  <si>
+    <t>CGACGGTAGGTGG</t>
+  </si>
+  <si>
+    <t>M2369</t>
+  </si>
+  <si>
+    <t>M00970</t>
+  </si>
+  <si>
+    <t>MYB4</t>
+  </si>
+  <si>
+    <t>NGGgGGTAGGTGg</t>
+  </si>
+  <si>
+    <t>M1330_1.02</t>
+  </si>
+  <si>
+    <t>M2368</t>
+  </si>
+  <si>
+    <t>M00968</t>
+  </si>
+  <si>
+    <t>AGL1 binding site</t>
+  </si>
+  <si>
+    <t>NTT(A/G/T)CC(A/T)(A/T)(A/T)(A/T)NNGG(A/T)AAN</t>
+  </si>
+  <si>
+    <t>M01059</t>
+  </si>
+  <si>
+    <t>M01060</t>
+  </si>
+  <si>
+    <t>M2378</t>
+  </si>
+  <si>
+    <t>NTTNCCNNANNNGGNAAN</t>
+  </si>
+  <si>
+    <t>NTTNCCNNANNNGGNANN</t>
+  </si>
+  <si>
+    <t>M2362</t>
+  </si>
+  <si>
+    <t>M0160</t>
+  </si>
+  <si>
+    <t>CBF3</t>
+  </si>
+  <si>
+    <t>M0031</t>
+  </si>
+  <si>
+    <t>M0032</t>
+  </si>
+  <si>
+    <t>NATGTCGGNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ATGTCGGNNN</t>
+  </si>
+  <si>
+    <t>M01188</t>
+  </si>
+  <si>
+    <t>M01189</t>
+  </si>
+  <si>
+    <t>M1403</t>
+  </si>
+  <si>
+    <t>NTL9</t>
+  </si>
+  <si>
+    <t>TTGCTT</t>
+  </si>
+  <si>
+    <t>TTGCTTANNNNNNAAG</t>
+  </si>
+  <si>
+    <t>TTAAGTAAT</t>
+  </si>
+  <si>
+    <t>GBF1/2/3 BS in ADH1</t>
+  </si>
+  <si>
+    <t>CCACGTGG</t>
+  </si>
+  <si>
+    <t>M00441</t>
+  </si>
+  <si>
+    <t>M0268</t>
+  </si>
+  <si>
+    <t>TGCCACGTGGCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NNACGTGGCN</t>
+  </si>
+  <si>
+    <t>TGA</t>
+  </si>
+  <si>
+    <t>ACGTCATAGA</t>
+  </si>
+  <si>
+    <t>M0269</t>
+  </si>
+  <si>
+    <t>NNTGACGTNN</t>
+  </si>
+  <si>
+    <t>TCTACGTCAC</t>
+  </si>
+  <si>
+    <t>LS5</t>
+  </si>
+  <si>
+    <t>LS7</t>
+  </si>
+  <si>
+    <t>CCAATTTAATGG</t>
+  </si>
+  <si>
+    <t>AGL15</t>
+  </si>
+  <si>
+    <t>M00949</t>
+  </si>
+  <si>
+    <t>M2341</t>
+  </si>
+  <si>
+    <t>TT(A/T)C(C/T)(A/T)(T/A)(A/T)AATAGTAA</t>
+  </si>
+  <si>
+    <t>TTCCAAAAA(T/A)CCAAA</t>
+  </si>
+  <si>
+    <t>AGL2</t>
+  </si>
+  <si>
+    <t>NN(A/T)NCCA(A/T)AAAAATGGNAAN</t>
+  </si>
+  <si>
+    <t>M01061</t>
+  </si>
+  <si>
+    <t>M01062</t>
+  </si>
+  <si>
+    <t>M2377</t>
+  </si>
+  <si>
+    <t>NNNNCCANANAAATAGNAAN</t>
+  </si>
+  <si>
+    <t>ATCTTATGTCATTGATGACGACCTCC</t>
+  </si>
+  <si>
+    <t>M0655</t>
+  </si>
+  <si>
+    <t>M0656</t>
+  </si>
+  <si>
+    <t>NGATAACGNN</t>
+  </si>
+  <si>
+    <t>NNATAACGTTN</t>
+  </si>
+  <si>
+    <t>M0273</t>
+  </si>
+  <si>
+    <t>M2381</t>
+  </si>
+  <si>
+    <t>M1932</t>
+  </si>
+  <si>
+    <t>M00503</t>
+  </si>
+  <si>
+    <t>M2662</t>
+  </si>
+  <si>
+    <t>M00375</t>
+  </si>
+  <si>
+    <t>NNT(C/G)ACGTNNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          cNNACGTgag</t>
+  </si>
+  <si>
+    <t>NNT    G  ACGTNN</t>
+  </si>
+  <si>
+    <t>M00937</t>
+  </si>
+  <si>
+    <t>M00946</t>
+  </si>
+  <si>
+    <t>Gt(c/g)ACGT(c/g)AC</t>
+  </si>
+  <si>
+    <t>TGA1_binding_site_motif</t>
+  </si>
+  <si>
+    <t>TGACGTGG</t>
+  </si>
+  <si>
+    <t>octamer_binding</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>SPL14</t>
+  </si>
+  <si>
+    <t>M1561</t>
+  </si>
+  <si>
+    <t>M2379</t>
+  </si>
+  <si>
+    <t>TNCGTACAA</t>
+  </si>
+  <si>
+    <t>SBP binding</t>
+  </si>
+  <si>
+    <t>NNNGTACGg</t>
+  </si>
+  <si>
+    <t>CccNNNcGTACGGAgNNNN</t>
+  </si>
+  <si>
+    <t>M01180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CCGTACA</t>
+  </si>
+  <si>
+    <t>M0270_1.02</t>
+  </si>
+  <si>
+    <t>OBF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 aTGACGTN</t>
+  </si>
+  <si>
+    <t>Nonamere</t>
+  </si>
+  <si>
+    <t>AaNTAAAGNNN</t>
+  </si>
+  <si>
+    <t>aaaaAAAGCaa</t>
+  </si>
+  <si>
+    <t>caNNAAAGcNN</t>
+  </si>
+  <si>
+    <t>M00352_DOF1</t>
+  </si>
+  <si>
+    <t>DOF1_2</t>
+  </si>
+  <si>
+    <t>DOF1_3</t>
+  </si>
+  <si>
+    <t>DOF1</t>
+  </si>
+  <si>
+    <t>gcCACGTGgc</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1857,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1308,6 +1902,7 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1825,10 +2420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K290"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="B291" sqref="B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2704,7 +3299,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>131</v>
       </c>
@@ -2712,8 +3307,960 @@
         <v>132</v>
       </c>
     </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C128" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C136" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B140" s="11"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B170" s="42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>335</v>
+      </c>
+      <c r="B179" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B184" s="2"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>338</v>
+      </c>
+      <c r="B187" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>349</v>
+      </c>
+      <c r="B197" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B201" s="24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B202" s="2"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>359</v>
+      </c>
+      <c r="B205" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>361</v>
+      </c>
+      <c r="B207" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="23"/>
+      <c r="B209" s="23"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C220" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>378</v>
+      </c>
+      <c r="B224" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>383</v>
+      </c>
+      <c r="B230" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>384</v>
+      </c>
+      <c r="B231" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="B233" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>391</v>
+      </c>
+      <c r="B234" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>400</v>
+      </c>
+      <c r="B238" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>401</v>
+      </c>
+      <c r="B240" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>403</v>
+      </c>
+      <c r="B242" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>404</v>
+      </c>
+      <c r="B243" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>405</v>
+      </c>
+      <c r="B244" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B247" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>410</v>
+      </c>
+      <c r="B248" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="23"/>
+      <c r="B253" s="23"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="23"/>
+      <c r="B254" s="23"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>415</v>
+      </c>
+      <c r="B255" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="10"/>
+      <c r="B258" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>397</v>
+      </c>
+      <c r="B261" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B266" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="10"/>
+      <c r="B275" s="10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>442</v>
+      </c>
+      <c r="B276" t="s">
+        <v>443</v>
+      </c>
+      <c r="C276" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>436</v>
+      </c>
+      <c r="B277" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>439</v>
+      </c>
+      <c r="B279" s="23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>444</v>
+      </c>
+      <c r="B281" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="10"/>
+      <c r="B284" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>455</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3021,7 +4568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:B26"/>
     </sheetView>
   </sheetViews>
@@ -3333,8 +4880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView topLeftCell="A30" zoomScale="102" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3606,7 +5153,7 @@
         <v>191</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
